--- a/data/2026/2026-01.xlsx
+++ b/data/2026/2026-01.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -613,6 +613,58 @@
         </is>
       </c>
       <c r="J4" t="inlineStr">
+        <is>
+          <t>https://www.bankofchina.com/sourcedb/whpj/enindex_1619.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2026-01-02</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2026-01-02 17:53:08</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>697.85</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>697.85</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>700.79</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>700.79</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>702.88</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2026/01/02 17:53:08</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>2026-01-02 09:56:30</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
         <is>
           <t>https://www.bankofchina.com/sourcedb/whpj/enindex_1619.html</t>
         </is>
@@ -757,7 +809,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">

--- a/data/2026/2026-01.xlsx
+++ b/data/2026/2026-01.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -665,6 +665,58 @@
         </is>
       </c>
       <c r="J5" t="inlineStr">
+        <is>
+          <t>https://www.bankofchina.com/sourcedb/whpj/enindex_1619.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2026-01-02</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2026-01-02 18:13:08</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>697.85</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>697.85</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>700.79</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>700.79</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>702.88</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2026/01/02 18:13:08</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>2026-01-02 10:14:25</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
         <is>
           <t>https://www.bankofchina.com/sourcedb/whpj/enindex_1619.html</t>
         </is>
@@ -809,7 +861,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">

--- a/data/2026/2026-01.xlsx
+++ b/data/2026/2026-01.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -533,6 +533,58 @@
         </is>
       </c>
       <c r="J2" t="inlineStr">
+        <is>
+          <t>https://www.bankofchina.com/sourcedb/whpj/enindex_1619.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2026-01-02</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2026-01-02 18:35:17</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>697.85</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>697.85</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>700.79</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>700.79</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>702.88</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2026/01/02 18:35:17</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>2026-01-02 10:37:44</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
         <is>
           <t>https://www.bankofchina.com/sourcedb/whpj/enindex_1619.html</t>
         </is>
@@ -630,7 +682,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">

--- a/data/2026/2026-01.xlsx
+++ b/data/2026/2026-01.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -590,6 +590,58 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2026-01-02</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2026-01-02 18:43:08</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>697.85</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>697.85</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>700.79</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>700.79</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>702.88</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2026/01/02 18:43:08</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>2026-01-02 10:44:16</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>https://www.bankofchina.com/sourcedb/whpj/enindex_1619.html</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -601,7 +653,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -609,21 +661,17 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="28" customWidth="1" min="1" max="1"/>
+    <col width="30" customWidth="1" min="1" max="1"/>
     <col width="21" customWidth="1" min="2" max="2"/>
     <col width="11" customWidth="1" min="3" max="3"/>
-    <col width="15" customWidth="1" min="4" max="4"/>
-    <col width="12" customWidth="1" min="5" max="5"/>
-    <col width="16" customWidth="1" min="6" max="6"/>
-    <col width="11" customWidth="1" min="7" max="7"/>
-    <col width="21" customWidth="1" min="8" max="8"/>
-    <col width="11" customWidth="1" min="9" max="9"/>
+    <col width="21" customWidth="1" min="4" max="4"/>
+    <col width="11" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Day Averages</t>
+          <t>Day Averages (Middle)</t>
         </is>
       </c>
     </row>
@@ -640,35 +688,15 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>avgBuying</t>
+          <t>avgMiddle</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>avgCashBuying</t>
+          <t>minMiddle</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
-        <is>
-          <t>avgSelling</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>avgCashSelling</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>avgMiddle</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>minMiddle</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
         <is>
           <t>maxMiddle</t>
         </is>
@@ -682,40 +710,20 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>697.8500</t>
+          <t>702.8800</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>697.8500</t>
+          <t>702.8800</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
-        <is>
-          <t>700.7900</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>700.7900</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>702.8800</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>702.8800</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
         <is>
           <t>702.8800</t>
         </is>
@@ -725,7 +733,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Day First Published Values</t>
+          <t>Day First Published (Middle)</t>
         </is>
       </c>
     </row>
@@ -742,30 +750,10 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>buying</t>
+          <t>middle</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
-        <is>
-          <t>cashBuying</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>selling</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>cashSelling</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>middle</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
         <is>
           <t>publishTimeRaw</t>
         </is>
@@ -784,30 +772,10 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>697.85</t>
+          <t>702.88</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
-        <is>
-          <t>697.85</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>700.79</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>700.79</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>702.88</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
         <is>
           <t>2026/01/02 18:18:08</t>
         </is>

--- a/data/2026/2026-01.xlsx
+++ b/data/2026/2026-01.xlsx
@@ -10,7 +10,10 @@
     <sheet name="All Published Values" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Daily Summary" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <definedNames/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'All Published Values'!$A$1:$J$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Daily Summary'!$A$1:$E$4</definedName>
+  </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
@@ -18,7 +21,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -26,13 +29,22 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b val="1"/>
+      <color rgb="00FFFFFF"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="001F2A44"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -47,8 +59,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -414,10 +429,11 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -435,52 +451,52 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>publishTime</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>buying</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>cashBuying</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>selling</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>cashSelling</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>middle</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>publishTimeRaw</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>capturedAtUtc</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>source</t>
         </is>
@@ -642,7 +658,60 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2026-01-02</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2026-01-02 18:53:08</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>697.85</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>697.85</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>700.79</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>700.79</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>702.88</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2026/01/02 18:53:08</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>2026-01-02 10:55:55</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>https://www.bankofchina.com/sourcedb/whpj/enindex_1619.html</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:J5"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -653,10 +722,11 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -675,113 +745,108 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
+    <row r="2"/>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B3" s="1" t="inlineStr">
         <is>
           <t>publishes</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>avgMiddle</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D3" s="1" t="inlineStr">
         <is>
           <t>minMiddle</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E3" s="1" t="inlineStr">
         <is>
           <t>maxMiddle</t>
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
+    <row r="4">
+      <c r="A4" t="inlineStr">
         <is>
           <t>2026-01-02</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>702.8800</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>702.8800</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>702.8800</t>
-        </is>
-      </c>
-    </row>
-    <row r="4"/>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Day First Published (Middle)</t>
-        </is>
-      </c>
-    </row>
+      <c r="B4" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4" t="n">
+        <v>702.88</v>
+      </c>
+      <c r="D4" t="n">
+        <v>702.88</v>
+      </c>
+      <c r="E4" t="n">
+        <v>702.88</v>
+      </c>
+    </row>
+    <row r="5"/>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>Day First Published (Middle)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7"/>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
           <t>date</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B8" t="inlineStr">
         <is>
           <t>firstPublishTime</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>middle</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>publishTimeRaw</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+    <row r="9">
+      <c r="A9" t="inlineStr">
         <is>
           <t>2026-01-02</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>2026-01-02 18:18:08</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>702.88</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>2026/01/02 18:18:08</t>
         </is>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E4"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/data/2026/2026-01.xlsx
+++ b/data/2026/2026-01.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Daily Summary" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'All Published Values'!$A$1:$J$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'All Published Values'!$A$1:$J$6</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Daily Summary'!$A$1:$E$4</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -710,8 +710,60 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2026-01-02</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2026-01-02 19:08:08</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>697.85</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>697.85</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>700.79</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>700.79</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>702.88</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2026/01/02 19:08:08</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>2026-01-02 11:10:50</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>https://www.bankofchina.com/sourcedb/whpj/enindex_1619.html</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:J5"/>
+  <autoFilter ref="A1:J6"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -780,7 +832,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
         <v>702.88</v>

--- a/data/2026/2026-01.xlsx
+++ b/data/2026/2026-01.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Daily Summary" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'All Published Values'!$A$1:$J$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'All Published Values'!$A$1:$J$7</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Daily Summary'!$A$1:$E$4</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -762,8 +762,60 @@
         </is>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2026-01-02</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2026-01-02 19:23:08</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>697.85</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>697.85</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>700.79</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>700.79</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>702.88</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2026/01/02 19:23:08</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>2026-01-02 11:28:24</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>https://www.bankofchina.com/sourcedb/whpj/enindex_1619.html</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:J6"/>
+  <autoFilter ref="A1:J7"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -832,7 +884,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
         <v>702.88</v>

--- a/data/2026/2026-01.xlsx
+++ b/data/2026/2026-01.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Daily Summary" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'All Published Values'!$A$1:$J$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'All Published Values'!$A$1:$J$8</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Daily Summary'!$A$1:$E$4</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -814,8 +814,60 @@
         </is>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2026-01-02</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2026-01-02 19:33:08</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>697.85</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>697.85</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>700.79</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>700.79</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>702.88</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2026/01/02 19:33:08</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>2026-01-02 11:38:01</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>https://www.bankofchina.com/sourcedb/whpj/enindex_1619.html</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:J7"/>
+  <autoFilter ref="A1:J8"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -884,7 +936,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
         <v>702.88</v>

--- a/data/2026/2026-01.xlsx
+++ b/data/2026/2026-01.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Daily Summary" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'All Published Values'!$A$1:$J$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'All Published Values'!$A$1:$J$9</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Daily Summary'!$A$1:$E$4</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -866,8 +866,60 @@
         </is>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2026-01-02</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2026-01-02 19:43:40</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>697.85</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>697.85</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>700.79</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>700.79</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>702.88</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2026/01/02 19:43:40</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>2026-01-02 11:45:15</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>https://www.bankofchina.com/sourcedb/whpj/enindex_1619.html</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:J8"/>
+  <autoFilter ref="A1:J9"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -936,7 +988,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
         <v>702.88</v>

--- a/data/2026/2026-01.xlsx
+++ b/data/2026/2026-01.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Daily Summary" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'All Published Values'!$A$1:$J$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'All Published Values'!$A$1:$J$10</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Daily Summary'!$A$1:$E$4</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -918,8 +918,60 @@
         </is>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2026-01-02</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2026-01-02 19:48:09</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>697.85</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>697.85</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>700.79</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>700.79</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>702.88</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2026/01/02 19:48:09</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>2026-01-02 11:51:31</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>https://www.bankofchina.com/sourcedb/whpj/enindex_1619.html</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:J9"/>
+  <autoFilter ref="A1:J10"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -988,7 +1040,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="n">
         <v>702.88</v>

--- a/data/2026/2026-01.xlsx
+++ b/data/2026/2026-01.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Daily Summary" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'All Published Values'!$A$1:$J$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'All Published Values'!$A$1:$J$11</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Daily Summary'!$A$1:$E$4</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -970,8 +970,60 @@
         </is>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2026-01-02</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2026-01-02 19:53:09</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>697.85</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>697.85</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>700.79</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>700.79</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>702.88</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2026/01/02 19:53:09</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>2026-01-02 11:57:40</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>https://www.bankofchina.com/sourcedb/whpj/enindex_1619.html</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:J10"/>
+  <autoFilter ref="A1:J11"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -1040,7 +1092,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" t="n">
         <v>702.88</v>

--- a/data/2026/2026-01.xlsx
+++ b/data/2026/2026-01.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Daily Summary" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'All Published Values'!$A$1:$J$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'All Published Values'!$A$1:$J$12</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Daily Summary'!$A$1:$E$4</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1022,8 +1022,60 @@
         </is>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2026-01-02</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2026-01-02 20:28:09</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>697.85</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>697.85</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>700.79</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>700.79</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>702.88</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2026/01/02 20:28:09</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>2026-01-02 12:30:28</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>https://www.bankofchina.com/sourcedb/whpj/enindex_1619.html</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:J11"/>
+  <autoFilter ref="A1:J12"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -1092,7 +1144,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" t="n">
         <v>702.88</v>

--- a/data/2026/2026-01.xlsx
+++ b/data/2026/2026-01.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Daily Summary" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'All Published Values'!$A$1:$J$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'All Published Values'!$A$1:$J$13</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Daily Summary'!$A$1:$E$4</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1074,8 +1074,60 @@
         </is>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2026-01-02</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2026-01-02 20:58:09</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>697.85</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>697.85</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>700.79</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>700.79</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>702.88</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2026/01/02 20:58:09</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>2026-01-02 13:09:13</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>https://www.bankofchina.com/sourcedb/whpj/enindex_1619.html</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:J12"/>
+  <autoFilter ref="A1:J13"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -1144,7 +1196,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" t="n">
         <v>702.88</v>

--- a/data/2026/2026-01.xlsx
+++ b/data/2026/2026-01.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Daily Summary" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'All Published Values'!$A$1:$J$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'All Published Values'!$A$1:$J$14</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Daily Summary'!$A$1:$E$4</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1126,8 +1126,60 @@
         </is>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2026-01-02</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2026-01-02 21:19:48</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>697.85</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>697.85</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>700.79</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>700.79</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>702.88</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>2026/01/02 21:19:48</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>2026-01-02 13:41:27</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>https://www.bankofchina.com/sourcedb/whpj/enindex_1619.html</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:J13"/>
+  <autoFilter ref="A1:J14"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -1196,7 +1248,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" t="n">
         <v>702.88</v>

--- a/data/2026/2026-01.xlsx
+++ b/data/2026/2026-01.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Daily Summary" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'All Published Values'!$A$1:$J$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'All Published Values'!$A$1:$J$15</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Daily Summary'!$A$1:$E$4</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1178,8 +1178,60 @@
         </is>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2026-01-02</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2026-01-02 21:44:23</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>697.85</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>697.85</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>700.79</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>700.79</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>702.88</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>2026/01/02 21:44:23</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>2026-01-02 13:53:04</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>https://www.bankofchina.com/sourcedb/whpj/enindex_1619.html</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:J14"/>
+  <autoFilter ref="A1:J15"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -1248,7 +1300,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" t="n">
         <v>702.88</v>

--- a/data/2026/2026-01.xlsx
+++ b/data/2026/2026-01.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Daily Summary" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'All Published Values'!$A$1:$J$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'All Published Values'!$A$1:$J$16</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Daily Summary'!$A$1:$E$4</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1230,8 +1230,60 @@
         </is>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2026-01-02</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2026-01-02 22:16:58</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>697.85</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>697.85</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>700.79</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>700.79</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>702.88</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>2026/01/02 22:16:58</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>2026-01-02 14:19:32</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>https://www.bankofchina.com/sourcedb/whpj/enindex_1619.html</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:J15"/>
+  <autoFilter ref="A1:J16"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -1300,7 +1352,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" t="n">
         <v>702.88</v>

--- a/data/2026/2026-01.xlsx
+++ b/data/2026/2026-01.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Daily Summary" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'All Published Values'!$A$1:$J$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'All Published Values'!$A$1:$J$17</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Daily Summary'!$A$1:$E$4</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1282,8 +1282,60 @@
         </is>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2026-01-02</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2026-01-02 22:31:02</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>697.85</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>697.85</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>700.79</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>700.79</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>702.88</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>2026/01/02 22:31:02</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>2026-01-02 14:40:29</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>https://www.bankofchina.com/sourcedb/whpj/enindex_1619.html</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:J16"/>
+  <autoFilter ref="A1:J17"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -1352,7 +1404,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4" t="n">
         <v>702.88</v>

--- a/data/2026/2026-01.xlsx
+++ b/data/2026/2026-01.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Daily Summary" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'All Published Values'!$A$1:$J$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'All Published Values'!$A$1:$J$18</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Daily Summary'!$A$1:$E$4</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1334,8 +1334,60 @@
         </is>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2026-01-02</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2026-01-02 22:55:06</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>697.85</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>697.85</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>700.79</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>700.79</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>702.88</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>2026/01/02 22:55:06</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>2026-01-02 14:57:20</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>https://www.bankofchina.com/sourcedb/whpj/enindex_1619.html</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:J17"/>
+  <autoFilter ref="A1:J18"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -1404,7 +1456,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" t="n">
         <v>702.88</v>

--- a/data/2026/2026-01.xlsx
+++ b/data/2026/2026-01.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Daily Summary" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'All Published Values'!$A$1:$J$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'All Published Values'!$A$1:$J$19</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Daily Summary'!$A$1:$E$4</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1386,8 +1386,60 @@
         </is>
       </c>
     </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2026-01-02</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2026-01-02 22:59:31</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>697.85</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>697.85</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>700.79</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>700.79</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>702.88</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>2026/01/02 22:59:31</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>2026-01-02 15:15:54</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>https://www.bankofchina.com/sourcedb/whpj/enindex_1619.html</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:J18"/>
+  <autoFilter ref="A1:J19"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -1456,7 +1508,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4" t="n">
         <v>702.88</v>

--- a/data/2026/2026-01.xlsx
+++ b/data/2026/2026-01.xlsx
@@ -11,8 +11,8 @@
     <sheet name="Daily Summary" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'All Published Values'!$A$1:$J$19</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Daily Summary'!$A$1:$E$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'All Published Values'!$A$1:$J$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Daily Summary'!$A$1:$E$5</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1438,8 +1438,60 @@
         </is>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2026-01-03</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2026-01-03 00:00:05</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>697.85</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>697.85</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>700.79</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>700.79</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>702.88</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>2026/01/03 00:00:05</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>2026-01-02 16:26:26</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>https://www.bankofchina.com/sourcedb/whpj/enindex_1619.html</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:J19"/>
+  <autoFilter ref="A1:J20"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -1450,7 +1502,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1520,61 +1572,102 @@
         <v>702.88</v>
       </c>
     </row>
-    <row r="5"/>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2026-01-03</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>702.88</v>
+      </c>
+      <c r="D5" t="n">
+        <v>702.88</v>
+      </c>
+      <c r="E5" t="n">
+        <v>702.88</v>
+      </c>
+    </row>
+    <row r="6"/>
+    <row r="7">
+      <c r="A7" t="inlineStr">
         <is>
           <t>Day First Published (Middle)</t>
         </is>
       </c>
     </row>
-    <row r="7"/>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>date</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>firstPublishTime</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>middle</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>publishTimeRaw</t>
-        </is>
-      </c>
-    </row>
+    <row r="8"/>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2026-01-02</t>
+          <t>date</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>firstPublishTime</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>middle</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>publishTimeRaw</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2026-01-02</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2026-01-02 18:18:08</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>702.88</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>702.88</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>2026/01/02 18:18:08</t>
         </is>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2026-01-03</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2026-01-03 00:00:05</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>702.88</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2026/01/03 00:00:05</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:E4"/>
+  <autoFilter ref="A1:E5"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/data/2026/2026-01.xlsx
+++ b/data/2026/2026-01.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Daily Summary" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'All Published Values'!$A$1:$J$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'All Published Values'!$A$1:$J$21</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Daily Summary'!$A$1:$E$5</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1490,8 +1490,60 @@
         </is>
       </c>
     </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2026-01-03</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2026-01-03 05:30:00</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>697.85</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>697.85</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>700.79</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>700.79</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>702.88</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>2026/01/03 05:30:00</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>2026-01-02 21:37:51</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>https://www.bankofchina.com/sourcedb/whpj/enindex_1619.html</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:J20"/>
+  <autoFilter ref="A1:J21"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -1579,7 +1631,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>702.88</v>

--- a/data/2026/2026-01.xlsx
+++ b/data/2026/2026-01.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Daily Summary" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'All Published Values'!$A$1:$J$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'All Published Values'!$A$1:$J$22</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Daily Summary'!$A$1:$E$5</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1542,8 +1542,60 @@
         </is>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2026-01-03</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2026-01-03 05:58:24</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>697.85</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>697.85</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>700.79</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>700.79</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>702.88</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>2026/01/03 05:58:24</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>2026-01-02 22:13:44</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>https://www.bankofchina.com/sourcedb/whpj/enindex_1619.html</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:J21"/>
+  <autoFilter ref="A1:J22"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -1631,7 +1683,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>702.88</v>

--- a/data/2026/2026-01.xlsx
+++ b/data/2026/2026-01.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Daily Summary" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'All Published Values'!$A$1:$J$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'All Published Values'!$A$1:$J$23</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Daily Summary'!$A$1:$E$5</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1594,8 +1594,60 @@
         </is>
       </c>
     </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2026-01-03</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2026-01-03 10:30:00</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>697.85</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>697.85</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>700.79</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>700.79</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>702.88</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>2026/01/03 10:30:00</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>2026-01-03 02:57:39</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>https://www.bankofchina.com/sourcedb/whpj/enindex_1619.html</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:J22"/>
+  <autoFilter ref="A1:J23"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -1683,7 +1735,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
         <v>702.88</v>

--- a/data/2026/2026-01.xlsx
+++ b/data/2026/2026-01.xlsx
@@ -11,8 +11,8 @@
     <sheet name="Daily Summary" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'All Published Values'!$A$1:$J$23</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Daily Summary'!$A$1:$E$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'All Published Values'!$A$1:$J$24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Daily Summary'!$A$1:$E$6</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1646,8 +1646,60 @@
         </is>
       </c>
     </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2026-01-04</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2026-01-04 00:00:05</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>697.85</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>697.85</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>700.79</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>700.79</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>702.88</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>2026/01/04 00:00:05</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>2026-01-03 16:12:32</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>https://www.bankofchina.com/sourcedb/whpj/enindex_1619.html</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:J23"/>
+  <autoFilter ref="A1:J24"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -1658,7 +1710,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1747,83 +1799,124 @@
         <v>702.88</v>
       </c>
     </row>
-    <row r="6"/>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2026-01-04</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="n">
+        <v>702.88</v>
+      </c>
+      <c r="D6" t="n">
+        <v>702.88</v>
+      </c>
+      <c r="E6" t="n">
+        <v>702.88</v>
+      </c>
+    </row>
+    <row r="7"/>
+    <row r="8">
+      <c r="A8" t="inlineStr">
         <is>
           <t>Day First Published (Middle)</t>
         </is>
       </c>
     </row>
-    <row r="8"/>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>date</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>firstPublishTime</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>middle</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>publishTimeRaw</t>
-        </is>
-      </c>
-    </row>
+    <row r="9"/>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2026-01-02</t>
+          <t>date</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2026-01-02 18:18:08</t>
+          <t>firstPublishTime</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>702.88</t>
+          <t>middle</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2026/01/02 18:18:08</t>
+          <t>publishTimeRaw</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>2026-01-02</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2026-01-02 18:18:08</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>702.88</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2026/01/02 18:18:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
           <t>2026-01-03</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B12" t="inlineStr">
         <is>
           <t>2026-01-03 00:00:05</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>702.88</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>702.88</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>2026/01/03 00:00:05</t>
         </is>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2026-01-04</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2026-01-04 00:00:05</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>702.88</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2026/01/04 00:00:05</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:E5"/>
+  <autoFilter ref="A1:E6"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/data/2026/2026-01.xlsx
+++ b/data/2026/2026-01.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Daily Summary" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'All Published Values'!$A$1:$J$24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'All Published Values'!$A$1:$J$25</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Daily Summary'!$A$1:$E$6</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1698,8 +1698,60 @@
         </is>
       </c>
     </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2026-01-04</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2026-01-04 05:30:00</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>697.85</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>697.85</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>700.79</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>700.79</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>702.88</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>2026/01/04 05:30:00</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>2026-01-03 21:37:58</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>https://www.bankofchina.com/sourcedb/whpj/enindex_1619.html</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:J24"/>
+  <autoFilter ref="A1:J25"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -1806,7 +1858,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
         <v>702.88</v>

--- a/data/2026/2026-01.xlsx
+++ b/data/2026/2026-01.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Daily Summary" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'All Published Values'!$A$1:$J$25</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'All Published Values'!$A$1:$J$26</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Daily Summary'!$A$1:$E$6</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1750,8 +1750,60 @@
         </is>
       </c>
     </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2026-01-04</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2026-01-04 09:33:22</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>697.35</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>697.35</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>700.29</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>700.29</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>702.88</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>2026/01/04 09:33:22</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>2026-01-04 01:58:58</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>https://www.bankofchina.com/sourcedb/whpj/enindex_1619.html</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:J25"/>
+  <autoFilter ref="A1:J26"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -1858,7 +1910,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
         <v>702.88</v>

--- a/data/2026/2026-01.xlsx
+++ b/data/2026/2026-01.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Daily Summary" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'All Published Values'!$A$1:$J$26</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'All Published Values'!$A$1:$J$27</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Daily Summary'!$A$1:$E$6</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1802,8 +1802,60 @@
         </is>
       </c>
     </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2026-01-04</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2026-01-04 10:30:00</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>697.35</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>697.35</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>700.29</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>700.29</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>702.88</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>2026/01/04 10:30:00</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>2026-01-04 03:49:03</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>https://www.bankofchina.com/sourcedb/whpj/enindex_1619.html</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:J26"/>
+  <autoFilter ref="A1:J27"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -1910,7 +1962,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
         <v>702.88</v>
